--- a/信息科技部工作日历表(易湘君)-20180613.xlsx
+++ b/信息科技部工作日历表(易湘君)-20180613.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037">
   <si>
     <t>信息科技部工作日历表</t>
   </si>
@@ -1497,6 +1497,9 @@
   </si>
   <si>
     <t>保持零售部手工报送流程。后续在报送系统建设时予以考虑。</t>
+  </si>
+  <si>
+    <t>啦啦啦</t>
   </si>
   <si>
     <t>住房维修专项资金专用折</t>
@@ -3446,10 +3449,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -3630,13 +3633,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3644,10 +3640,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3665,13 +3668,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3682,9 +3678,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3717,33 +3745,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3757,17 +3769,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3879,114 +3882,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4005,7 +3900,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4017,25 +4026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4237,6 +4240,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4261,65 +4318,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4342,10 +4345,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4354,133 +4357,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5343,11 +5346,11 @@
   <dimension ref="A1:BA346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="K147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="P153" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C147" sqref="C147:C149"/>
+      <selection pane="bottomRight" activeCell="R154" sqref="R154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8932,6 +8935,9 @@
         <v>467</v>
       </c>
       <c r="Q153" s="54"/>
+      <c r="R153" s="52" t="s">
+        <v>468</v>
+      </c>
       <c r="U153" s="54"/>
       <c r="Y153" s="54"/>
     </row>
@@ -8943,7 +8949,7 @@
     <row r="155" s="52" customFormat="1" customHeight="1" spans="1:25">
       <c r="A155" s="83"/>
       <c r="B155" s="80" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C155" s="81" t="s">
         <v>444</v>
@@ -8955,23 +8961,23 @@
         <v>214</v>
       </c>
       <c r="M155" s="65" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P155" s="54"/>
       <c r="Q155" s="65" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R155" s="65" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="S155" s="65" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T155" s="65" t="s">
         <v>25</v>
       </c>
       <c r="U155" s="101" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Y155" s="54"/>
     </row>
@@ -8983,21 +8989,20 @@
         <v>27</v>
       </c>
       <c r="I156" s="68" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M156" s="68" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P156" s="54"/>
       <c r="Q156" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="R156" s="52"/>
+        <v>477</v>
+      </c>
       <c r="T156" s="52" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="U156" s="52" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y156" s="54"/>
     </row>
@@ -9009,26 +9014,26 @@
         <v>38</v>
       </c>
       <c r="I157" s="68" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M157" s="68" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P157" s="54"/>
       <c r="Q157" s="52" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R157" s="52" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="S157" s="52" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T157" s="52" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="U157" s="52" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y157" s="54"/>
     </row>
@@ -9041,10 +9046,10 @@
     <row r="159" s="52" customFormat="1" spans="1:21">
       <c r="A159" s="83"/>
       <c r="B159" s="80" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C159" s="81" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D159" s="82" t="s">
         <v>16</v>
@@ -9062,11 +9067,11 @@
         <v>53</v>
       </c>
       <c r="Q159" s="65" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R159" s="54"/>
       <c r="S159" s="65" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T159" s="65" t="s">
         <v>25</v>
@@ -9083,29 +9088,29 @@
         <v>27</v>
       </c>
       <c r="I160" s="100" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M160" s="52" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N160" s="52" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P160" s="52" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q160" s="52" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="R160" s="54"/>
       <c r="S160" s="52" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T160" s="52" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="U160" s="52" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="161" s="52" customFormat="1" ht="148.5" spans="1:21">
@@ -9116,29 +9121,29 @@
         <v>38</v>
       </c>
       <c r="I161" s="100" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M161" s="52" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N161" s="52" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P161" s="52" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q161" s="52" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="R161" s="54"/>
       <c r="S161" s="52" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="T161" s="52" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="U161" s="52" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="162" s="51" customFormat="1" ht="3.95" customHeight="1" spans="1:1">
@@ -9147,7 +9152,7 @@
     <row r="163" customHeight="1" spans="1:13">
       <c r="A163" s="83"/>
       <c r="B163" s="80" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C163" s="81" t="s">
         <v>444</v>
@@ -9159,13 +9164,13 @@
         <v>314</v>
       </c>
       <c r="J163" s="65" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K163" s="65" t="s">
         <v>214</v>
       </c>
       <c r="M163" s="65" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="164" ht="66" spans="1:13">
@@ -9176,16 +9181,16 @@
         <v>27</v>
       </c>
       <c r="I164" s="68" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J164" s="68" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K164" s="68" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M164" s="68" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" ht="82.5" spans="1:13">
@@ -9196,16 +9201,16 @@
         <v>38</v>
       </c>
       <c r="I165" s="68" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J165" s="68" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K165" s="68" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M165" s="68" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" s="51" customFormat="1" ht="3.95" customHeight="1" spans="1:1">
@@ -9213,13 +9218,13 @@
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="107" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B167" s="108" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C167" s="109" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D167" s="110" t="s">
         <v>16</v>
@@ -9257,19 +9262,19 @@
         <v>27</v>
       </c>
       <c r="E168" s="113" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F168" s="112"/>
       <c r="G168" s="112"/>
       <c r="H168" s="112"/>
       <c r="I168" s="113" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J168" s="112"/>
       <c r="K168" s="112"/>
       <c r="L168" s="112"/>
       <c r="M168" s="115" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N168" s="112"/>
       <c r="O168" s="112"/>
@@ -9289,19 +9294,19 @@
         <v>38</v>
       </c>
       <c r="E169" s="113" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F169" s="112"/>
       <c r="G169" s="112"/>
       <c r="H169" s="112"/>
       <c r="I169" s="113" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J169" s="112"/>
       <c r="K169" s="112"/>
       <c r="L169" s="112"/>
       <c r="M169" s="115" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N169" s="112"/>
       <c r="O169" s="112"/>
@@ -9340,10 +9345,10 @@
     <row r="171" spans="1:22">
       <c r="A171" s="107"/>
       <c r="B171" s="107" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C171" s="109" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D171" s="110" t="s">
         <v>16</v>
@@ -9368,7 +9373,7 @@
         <v>116</v>
       </c>
       <c r="N171" s="120" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O171" s="124"/>
       <c r="P171" s="124"/>
@@ -9387,26 +9392,26 @@
         <v>27</v>
       </c>
       <c r="E172" s="113" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F172" s="115" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G172" s="112"/>
       <c r="H172" s="112"/>
       <c r="I172" s="115" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J172" s="115" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K172" s="112"/>
       <c r="L172" s="112"/>
       <c r="M172" s="125" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N172" s="125" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O172" s="112"/>
       <c r="P172" s="112"/>
@@ -9425,10 +9430,10 @@
         <v>38</v>
       </c>
       <c r="E173" s="113" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F173" s="115" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G173" s="112"/>
       <c r="H173" s="112"/>
@@ -9478,10 +9483,10 @@
     <row r="175" spans="1:22">
       <c r="A175" s="107"/>
       <c r="B175" s="107" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C175" s="109" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D175" s="110" t="s">
         <v>16</v>
@@ -9495,10 +9500,10 @@
       <c r="G175" s="112"/>
       <c r="H175" s="112"/>
       <c r="I175" s="120" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J175" s="120" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K175" s="123"/>
       <c r="L175" s="123"/>
@@ -9506,7 +9511,7 @@
         <v>116</v>
       </c>
       <c r="N175" s="120" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O175" s="124"/>
       <c r="P175" s="124"/>
@@ -9525,26 +9530,26 @@
         <v>27</v>
       </c>
       <c r="E176" s="116" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F176" s="116" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G176" s="112"/>
       <c r="H176" s="112"/>
       <c r="I176" s="116" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J176" s="115" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K176" s="112"/>
       <c r="L176" s="112"/>
       <c r="M176" s="126" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N176" s="126" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O176" s="112"/>
       <c r="P176" s="112"/>
@@ -9563,18 +9568,18 @@
         <v>38</v>
       </c>
       <c r="E177" s="116" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F177" s="116" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G177" s="112"/>
       <c r="H177" s="112"/>
       <c r="I177" s="116" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J177" s="115" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K177" s="112"/>
       <c r="L177" s="112"/>
@@ -9619,13 +9624,13 @@
     </row>
     <row r="179" spans="1:22">
       <c r="A179" s="117" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B179" s="108" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C179" s="118" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D179" s="119" t="s">
         <v>16</v>
@@ -9655,10 +9660,10 @@
         <v>253</v>
       </c>
       <c r="M179" s="120" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N179" s="120" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O179" s="120" t="s">
         <v>23</v>
@@ -9667,7 +9672,7 @@
         <v>53</v>
       </c>
       <c r="Q179" s="120" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="R179" s="120" t="s">
         <v>88</v>
@@ -9675,10 +9680,10 @@
       <c r="S179" s="112"/>
       <c r="T179" s="112"/>
       <c r="U179" s="120" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="V179" s="120" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="180" ht="132" spans="1:22">
@@ -9689,54 +9694,54 @@
         <v>27</v>
       </c>
       <c r="E180" s="121" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F180" s="122" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G180" s="122" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H180" s="122" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I180" s="122" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J180" s="122" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K180" s="122" t="s">
         <v>169</v>
       </c>
       <c r="L180" s="122" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M180" s="122" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N180" s="122" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O180" s="125" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P180" s="125" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q180" s="125" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R180" s="125" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S180" s="112"/>
       <c r="T180" s="112"/>
       <c r="U180" s="125" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="V180" s="125" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="181" ht="148.5" spans="1:22">
@@ -9747,37 +9752,37 @@
         <v>38</v>
       </c>
       <c r="E181" s="121" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F181" s="122" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G181" s="122" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H181" s="122" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I181" s="122" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J181" s="122" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K181" s="122" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L181" s="122" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M181" s="122" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N181" s="122" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O181" s="125" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P181" s="125" t="s">
         <v>47</v>
@@ -9823,13 +9828,13 @@
     </row>
     <row r="183" spans="1:22">
       <c r="A183" s="107" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B183" s="107" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C183" s="109" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D183" s="110" t="s">
         <v>16</v>
@@ -9861,7 +9866,7 @@
       <c r="O183" s="112"/>
       <c r="P183" s="112"/>
       <c r="Q183" s="120" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R183" s="112"/>
       <c r="S183" s="112"/>
@@ -9877,33 +9882,33 @@
         <v>27</v>
       </c>
       <c r="E184" s="116" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F184" s="116" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G184" s="112"/>
       <c r="H184" s="112"/>
       <c r="I184" s="116" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J184" s="116" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K184" s="116" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L184" s="112"/>
       <c r="M184" s="125" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N184" s="125" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O184" s="112"/>
       <c r="P184" s="112"/>
       <c r="Q184" s="125" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R184" s="112"/>
       <c r="S184" s="112"/>
@@ -9919,21 +9924,21 @@
         <v>38</v>
       </c>
       <c r="E185" s="116" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F185" s="116" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G185" s="112"/>
       <c r="H185" s="112"/>
       <c r="I185" s="116" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J185" s="116" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K185" s="116" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L185" s="112"/>
       <c r="M185" s="125" t="s">
@@ -9980,10 +9985,10 @@
     <row r="187" spans="1:22">
       <c r="A187" s="107"/>
       <c r="B187" s="107" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C187" s="109" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D187" s="110" t="s">
         <v>16</v>
@@ -10023,18 +10028,18 @@
         <v>27</v>
       </c>
       <c r="E188" s="116" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F188" s="116" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G188" s="112"/>
       <c r="H188" s="112"/>
       <c r="I188" s="116" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J188" s="116" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K188" s="112"/>
       <c r="L188" s="112"/>
@@ -10060,15 +10065,15 @@
         <v>206</v>
       </c>
       <c r="F189" s="116" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G189" s="112"/>
       <c r="H189" s="112"/>
       <c r="I189" s="116" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J189" s="116" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K189" s="112"/>
       <c r="L189" s="112"/>
@@ -10110,10 +10115,10 @@
     <row r="191" spans="1:17">
       <c r="A191" s="107"/>
       <c r="B191" s="107" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C191" s="109" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D191" s="110" t="s">
         <v>16</v>
@@ -10125,7 +10130,7 @@
       <c r="G191" s="112"/>
       <c r="H191" s="112"/>
       <c r="I191" s="120" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="J191" s="112"/>
       <c r="K191" s="112"/>
@@ -10146,19 +10151,19 @@
         <v>27</v>
       </c>
       <c r="E192" s="115" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F192" s="112"/>
       <c r="G192" s="112"/>
       <c r="H192" s="112"/>
       <c r="I192" s="115" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J192" s="112"/>
       <c r="K192" s="112"/>
       <c r="L192" s="112"/>
       <c r="M192" s="125" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N192" s="112"/>
       <c r="O192" s="112"/>
@@ -10173,19 +10178,19 @@
         <v>38</v>
       </c>
       <c r="E193" s="115" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F193" s="112"/>
       <c r="G193" s="112"/>
       <c r="H193" s="112"/>
       <c r="I193" s="115" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J193" s="112"/>
       <c r="K193" s="112"/>
       <c r="L193" s="112"/>
       <c r="M193" s="125" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N193" s="112"/>
       <c r="O193" s="112"/>
@@ -10214,10 +10219,10 @@
     <row r="195" spans="1:17">
       <c r="A195" s="107"/>
       <c r="B195" s="107" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C195" s="109" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D195" s="110" t="s">
         <v>16</v>
@@ -10233,7 +10238,7 @@
       <c r="K195" s="112"/>
       <c r="L195" s="112"/>
       <c r="M195" s="127" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N195" s="112"/>
       <c r="O195" s="112"/>
@@ -10252,13 +10257,13 @@
       <c r="G196" s="112"/>
       <c r="H196" s="112"/>
       <c r="I196" s="113" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="J196" s="112"/>
       <c r="K196" s="112"/>
       <c r="L196" s="112"/>
       <c r="M196" s="125" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N196" s="112"/>
       <c r="O196" s="112"/>
@@ -10277,13 +10282,13 @@
       <c r="G197" s="112"/>
       <c r="H197" s="112"/>
       <c r="I197" s="113" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J197" s="112"/>
       <c r="K197" s="112"/>
       <c r="L197" s="112"/>
       <c r="M197" s="125" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N197" s="112"/>
       <c r="O197" s="112"/>
@@ -10311,13 +10316,13 @@
     </row>
     <row r="199" spans="1:17">
       <c r="A199" s="107" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B199" s="107" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C199" s="109" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D199" s="110" t="s">
         <v>16</v>
@@ -10343,7 +10348,7 @@
       <c r="O199" s="112"/>
       <c r="P199" s="112"/>
       <c r="Q199" s="127" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="200" ht="33" spans="1:17">
@@ -10354,27 +10359,27 @@
         <v>27</v>
       </c>
       <c r="E200" s="115" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F200" s="112"/>
       <c r="G200" s="112"/>
       <c r="H200" s="112"/>
       <c r="I200" s="116" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J200" s="116" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K200" s="112"/>
       <c r="L200" s="112"/>
       <c r="M200" s="125" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N200" s="112"/>
       <c r="O200" s="112"/>
       <c r="P200" s="112"/>
       <c r="Q200" s="125" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="201" ht="132" spans="1:41">
@@ -10385,27 +10390,27 @@
         <v>38</v>
       </c>
       <c r="E201" s="115" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F201" s="112"/>
       <c r="G201" s="112"/>
       <c r="H201" s="112"/>
       <c r="I201" s="116" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J201" s="116" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K201" s="112"/>
       <c r="L201" s="112"/>
       <c r="M201" s="125" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N201" s="112"/>
       <c r="O201" s="112"/>
       <c r="P201" s="112"/>
       <c r="Q201" s="125" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="R201" s="112"/>
       <c r="S201" s="112"/>
@@ -10478,10 +10483,10 @@
     <row r="203" spans="1:41">
       <c r="A203" s="107"/>
       <c r="B203" s="107" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C203" s="109" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D203" s="110" t="s">
         <v>16</v>
@@ -10497,13 +10502,13 @@
       <c r="K203" s="112"/>
       <c r="L203" s="112"/>
       <c r="M203" s="120" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N203" s="112"/>
       <c r="O203" s="112"/>
       <c r="P203" s="112"/>
       <c r="Q203" s="127" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="R203" s="112"/>
       <c r="S203" s="112"/>
@@ -10538,7 +10543,7 @@
         <v>27</v>
       </c>
       <c r="E204" s="129" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F204" s="112"/>
       <c r="G204" s="112"/>
@@ -10548,13 +10553,13 @@
       <c r="K204" s="112"/>
       <c r="L204" s="112"/>
       <c r="M204" s="125" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N204" s="112"/>
       <c r="O204" s="112"/>
       <c r="P204" s="112"/>
       <c r="Q204" s="125" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="R204" s="112"/>
       <c r="S204" s="112"/>
@@ -10589,7 +10594,7 @@
         <v>38</v>
       </c>
       <c r="E205" s="129" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F205" s="112"/>
       <c r="G205" s="112"/>
@@ -10599,13 +10604,13 @@
       <c r="K205" s="112"/>
       <c r="L205" s="112"/>
       <c r="M205" s="125" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N205" s="112"/>
       <c r="O205" s="112"/>
       <c r="P205" s="112"/>
       <c r="Q205" s="125" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="R205" s="112"/>
       <c r="S205" s="112"/>
@@ -10678,10 +10683,10 @@
     <row r="207" ht="33" spans="1:41">
       <c r="A207" s="107"/>
       <c r="B207" s="107" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C207" s="109" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D207" s="110" t="s">
         <v>16</v>
@@ -10691,7 +10696,7 @@
       <c r="G207" s="112"/>
       <c r="H207" s="112"/>
       <c r="I207" s="120" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J207" s="112"/>
       <c r="K207" s="112"/>
@@ -10740,7 +10745,7 @@
       <c r="G208" s="112"/>
       <c r="H208" s="112"/>
       <c r="I208" s="125" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J208" s="112"/>
       <c r="K208" s="112"/>
@@ -10749,7 +10754,7 @@
       <c r="N208" s="112"/>
       <c r="O208" s="112"/>
       <c r="P208" s="125" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Q208" s="112"/>
       <c r="R208" s="112"/>
@@ -10789,7 +10794,7 @@
       <c r="G209" s="112"/>
       <c r="H209" s="112"/>
       <c r="I209" s="125" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J209" s="112"/>
       <c r="K209" s="112"/>
@@ -10871,13 +10876,13 @@
     </row>
     <row r="211" spans="1:30">
       <c r="A211" s="62" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B211" s="130" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C211" s="131" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D211" s="64" t="s">
         <v>16</v>
@@ -10921,22 +10926,22 @@
         <v>27</v>
       </c>
       <c r="E212" s="68" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F212" s="68" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G212" s="68" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M212" s="148" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N212" s="148" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O212" s="54" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="213" ht="148.5" spans="1:15">
@@ -10947,22 +10952,22 @@
         <v>38</v>
       </c>
       <c r="E213" s="68" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F213" s="68" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G213" s="68" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M213" s="148" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N213" s="148" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O213" s="54" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="214" s="51" customFormat="1" ht="3.95" customHeight="1" spans="1:3">
@@ -10973,16 +10978,16 @@
     <row r="215" spans="1:21">
       <c r="A215" s="66"/>
       <c r="B215" s="62" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C215" s="63" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D215" s="64" t="s">
         <v>16</v>
       </c>
       <c r="E215" s="65" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F215" s="65" t="s">
         <v>51</v>
@@ -11010,19 +11015,19 @@
         <v>27</v>
       </c>
       <c r="E216" s="68" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F216" s="68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I216" s="68" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M216" s="54" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N216" s="54" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Q216" s="52"/>
     </row>
@@ -11034,16 +11039,16 @@
         <v>38</v>
       </c>
       <c r="E217" s="68" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F217" s="68" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I217" s="68" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M217" s="54" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N217" s="54" t="s">
         <v>48</v>
@@ -11058,10 +11063,10 @@
     <row r="219" spans="1:19">
       <c r="A219" s="66"/>
       <c r="B219" s="62" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C219" s="63" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D219" s="64" t="s">
         <v>16</v>
@@ -11097,20 +11102,20 @@
         <v>27</v>
       </c>
       <c r="E220" s="68" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J220" s="52"/>
       <c r="M220" s="148" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N220" s="54" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O220" s="54" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q220" s="54" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="R220" s="52"/>
     </row>
@@ -11127,13 +11132,13 @@
       <c r="F221" s="52"/>
       <c r="G221" s="52"/>
       <c r="M221" s="148" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N221" s="54" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O221" s="54" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Q221" s="54" t="s">
         <v>48</v>
@@ -11147,10 +11152,10 @@
     <row r="223" customHeight="1" spans="1:30">
       <c r="A223" s="66"/>
       <c r="B223" s="130" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C223" s="131" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D223" s="64" t="s">
         <v>16</v>
@@ -11165,7 +11170,7 @@
         <v>19</v>
       </c>
       <c r="I223" s="65" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J223" s="65" t="s">
         <v>214</v>
@@ -11177,23 +11182,23 @@
         <v>54</v>
       </c>
       <c r="O223" s="65" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P223" s="73"/>
       <c r="Q223" s="65" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R223" s="65" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="U223" s="65" t="s">
         <v>145</v>
       </c>
       <c r="AC223" s="65" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AD223" s="75" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="224" ht="33" spans="1:30">
@@ -11204,44 +11209,44 @@
         <v>27</v>
       </c>
       <c r="E224" s="68" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F224" s="68" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G224" s="68" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I224" s="68" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J224" s="68" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M224" s="54" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N224" s="54" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O224" s="54" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P224" s="52"/>
       <c r="Q224" s="54" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="R224" s="54" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="U224" s="54" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AC224" s="54" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AD224" s="54" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="225" ht="66" spans="1:30">
@@ -11252,19 +11257,19 @@
         <v>38</v>
       </c>
       <c r="E225" s="68" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F225" s="68" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G225" s="68" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I225" s="68" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J225" s="68" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M225" s="54" t="s">
         <v>47</v>
@@ -11303,7 +11308,7 @@
         <v>228</v>
       </c>
       <c r="C227" s="63" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D227" s="64" t="s">
         <v>16</v>
@@ -11315,7 +11320,7 @@
       <c r="O227" s="76"/>
       <c r="P227" s="76"/>
       <c r="Q227" s="65" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="R227" s="75" t="s">
         <v>25</v>
@@ -11357,7 +11362,7 @@
         <v>27</v>
       </c>
       <c r="M228" s="54" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N228" s="76"/>
       <c r="O228" s="76"/>
@@ -11405,7 +11410,7 @@
         <v>38</v>
       </c>
       <c r="M229" s="54" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N229" s="76"/>
       <c r="O229" s="76"/>
@@ -11451,13 +11456,13 @@
     </row>
     <row r="231" spans="1:27">
       <c r="A231" s="66" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B231" s="62" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C231" s="63" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D231" s="64" t="s">
         <v>16</v>
@@ -11469,10 +11474,10 @@
       <c r="J231" s="73"/>
       <c r="K231" s="73"/>
       <c r="M231" s="65" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N231" s="65" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O231" s="65" t="s">
         <v>23</v>
@@ -11503,16 +11508,16 @@
       <c r="J232" s="52"/>
       <c r="K232" s="52"/>
       <c r="M232" s="68" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N232" s="68" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O232" s="54" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Q232" s="54" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="R232" s="52"/>
       <c r="S232" s="52"/>
@@ -11537,13 +11542,13 @@
       <c r="J233" s="52"/>
       <c r="K233" s="52"/>
       <c r="M233" s="68" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="N233" s="68" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="O233" s="54" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Q233" s="54" t="s">
         <v>48</v>
@@ -11564,10 +11569,10 @@
     <row r="235" customHeight="1" spans="1:27">
       <c r="A235" s="66"/>
       <c r="B235" s="130" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C235" s="131" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D235" s="64" t="s">
         <v>16</v>
@@ -11580,7 +11585,7 @@
       <c r="J235" s="73"/>
       <c r="K235" s="73"/>
       <c r="M235" s="65" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N235" s="65" t="s">
         <v>23</v>
@@ -11616,16 +11621,16 @@
       <c r="J236" s="52"/>
       <c r="K236" s="52"/>
       <c r="M236" s="51" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N236" s="54" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O236" s="54" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="P236" s="54" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="R236" s="52"/>
       <c r="S236" s="52"/>
@@ -11652,10 +11657,10 @@
       <c r="J237" s="52"/>
       <c r="K237" s="52"/>
       <c r="M237" s="51" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O237" s="54" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="P237" s="54" t="s">
         <v>48</v>
@@ -11677,10 +11682,10 @@
     <row r="239" customHeight="1" spans="1:27">
       <c r="A239" s="66"/>
       <c r="B239" s="137" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C239" s="138" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D239" s="82" t="s">
         <v>16</v>
@@ -11693,16 +11698,16 @@
       <c r="J239" s="73"/>
       <c r="K239" s="73"/>
       <c r="M239" s="65" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N239" s="65" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O239" s="65" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P239" s="75" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="R239" s="52"/>
       <c r="S239" s="52"/>
@@ -11728,13 +11733,13 @@
       <c r="J240" s="52"/>
       <c r="K240" s="52"/>
       <c r="M240" s="54" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N240" s="54" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O240" s="54" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="P240" s="54" t="s">
         <v>48</v>
@@ -11778,10 +11783,10 @@
     <row r="243" spans="1:27">
       <c r="A243" s="66"/>
       <c r="B243" s="137" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C243" s="138" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D243" s="82" t="s">
         <v>16</v>
@@ -11794,13 +11799,13 @@
       <c r="J243" s="73"/>
       <c r="K243" s="73"/>
       <c r="M243" s="65" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N243" s="65" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q243" s="75" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="R243" s="73"/>
       <c r="S243" s="73"/>
@@ -11826,13 +11831,13 @@
       <c r="J244" s="52"/>
       <c r="K244" s="52"/>
       <c r="M244" s="149" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N244" s="149" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Q244" s="54" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="R244" s="52"/>
       <c r="S244" s="52"/>
@@ -11858,13 +11863,13 @@
       <c r="J245" s="52"/>
       <c r="K245" s="52"/>
       <c r="M245" s="149" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N245" s="149" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="Q245" s="54" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="R245" s="52"/>
       <c r="S245" s="52"/>
@@ -11882,10 +11887,10 @@
     <row r="247" customHeight="1" spans="1:27">
       <c r="A247" s="66"/>
       <c r="B247" s="130" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C247" s="131" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D247" s="143" t="s">
         <v>16</v>
@@ -11901,7 +11906,7 @@
       <c r="K247" s="144"/>
       <c r="L247" s="148"/>
       <c r="M247" s="105" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N247" s="101" t="s">
         <v>23</v>
@@ -11932,16 +11937,16 @@
       <c r="G248" s="145"/>
       <c r="H248" s="145"/>
       <c r="I248" s="150" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J248" s="145"/>
       <c r="K248" s="145"/>
       <c r="L248" s="148"/>
       <c r="M248" s="151" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N248" s="148" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="O248" s="148"/>
       <c r="P248" s="148"/>
@@ -11969,16 +11974,16 @@
       <c r="G249" s="145"/>
       <c r="H249" s="145"/>
       <c r="I249" s="150" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J249" s="145"/>
       <c r="K249" s="145"/>
       <c r="L249" s="148"/>
       <c r="M249" s="151" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N249" s="148" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O249" s="148"/>
       <c r="P249" s="148"/>
@@ -12025,10 +12030,10 @@
     <row r="251" customHeight="1" spans="1:27">
       <c r="A251" s="66"/>
       <c r="B251" s="130" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C251" s="131" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D251" s="143" t="s">
         <v>16</v>
@@ -12042,7 +12047,7 @@
       <c r="K251" s="144"/>
       <c r="L251" s="148"/>
       <c r="M251" s="105" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N251" s="105" t="s">
         <v>23</v>
@@ -12079,13 +12084,13 @@
       <c r="K252" s="145"/>
       <c r="L252" s="148"/>
       <c r="M252" s="152" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N252" s="148" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O252" s="148" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P252" s="148"/>
       <c r="Q252" s="148"/>
@@ -12116,13 +12121,13 @@
       <c r="K253" s="145"/>
       <c r="L253" s="148"/>
       <c r="M253" s="152" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N253" s="148" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O253" s="148" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="P253" s="148"/>
       <c r="Q253" s="148"/>
@@ -12144,10 +12149,10 @@
     <row r="255" customHeight="1" spans="1:27">
       <c r="A255" s="66"/>
       <c r="B255" s="130" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C255" s="131" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D255" s="64" t="s">
         <v>16</v>
@@ -12160,7 +12165,7 @@
       <c r="J255" s="73"/>
       <c r="K255" s="73"/>
       <c r="M255" s="65" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N255" s="65" t="s">
         <v>23</v>
@@ -12193,13 +12198,13 @@
       <c r="J256" s="52"/>
       <c r="K256" s="52"/>
       <c r="M256" s="51" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N256" s="54" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O256" s="54" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Q256" s="52"/>
       <c r="R256" s="52"/>
@@ -12226,13 +12231,13 @@
       <c r="J257" s="52"/>
       <c r="K257" s="52"/>
       <c r="M257" s="51" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N257" s="54" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O257" s="54" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="Q257" s="52"/>
       <c r="R257" s="52"/>
@@ -12251,10 +12256,10 @@
     <row r="259" customHeight="1" spans="1:27">
       <c r="A259" s="66"/>
       <c r="B259" s="130" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C259" s="131" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D259" s="143" t="s">
         <v>16</v>
@@ -12299,13 +12304,13 @@
       <c r="G260" s="145"/>
       <c r="H260" s="145"/>
       <c r="I260" s="150" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="J260" s="145"/>
       <c r="K260" s="145"/>
       <c r="L260" s="148"/>
       <c r="M260" s="148" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="N260" s="148"/>
       <c r="O260" s="148"/>
@@ -12334,7 +12339,7 @@
       <c r="G261" s="145"/>
       <c r="H261" s="145"/>
       <c r="I261" s="150" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="J261" s="145"/>
       <c r="K261" s="145"/>
@@ -12364,10 +12369,10 @@
     <row r="263" spans="1:27">
       <c r="A263" s="66"/>
       <c r="B263" s="130" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C263" s="131" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D263" s="64" t="s">
         <v>16</v>
@@ -12380,7 +12385,7 @@
       <c r="J263" s="73"/>
       <c r="K263" s="73"/>
       <c r="M263" s="65" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N263" s="65" t="s">
         <v>86</v>
@@ -12392,7 +12397,7 @@
       <c r="R263" s="73"/>
       <c r="S263" s="73"/>
       <c r="U263" s="75" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="V263" s="52"/>
       <c r="W263" s="52"/>
@@ -12416,19 +12421,19 @@
       <c r="J264" s="52"/>
       <c r="K264" s="52"/>
       <c r="M264" s="68" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N264" s="54" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O264" s="54" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Q264" s="52"/>
       <c r="R264" s="52"/>
       <c r="S264" s="52"/>
       <c r="U264" s="54" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="V264" s="52"/>
       <c r="W264" s="52"/>
@@ -12452,13 +12457,13 @@
       <c r="J265" s="52"/>
       <c r="K265" s="52"/>
       <c r="M265" s="68" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N265" s="54" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O265" s="54" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="Q265" s="52"/>
       <c r="R265" s="52"/>
@@ -12476,13 +12481,13 @@
     <row r="266" s="51" customFormat="1" ht="3.95" customHeight="1"/>
     <row r="267" spans="1:18">
       <c r="A267" s="62" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B267" s="62" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C267" s="63" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D267" s="64" t="s">
         <v>16</v>
@@ -12506,7 +12511,7 @@
         <v>53</v>
       </c>
       <c r="Q267" s="75" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="R267" s="73"/>
     </row>
@@ -12518,25 +12523,25 @@
         <v>27</v>
       </c>
       <c r="E268" s="68" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F268" s="68" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="I268" s="68" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M268" s="54" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N268" s="54" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O268" s="54" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Q268" s="54" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="R268" s="52"/>
     </row>
@@ -12548,19 +12553,19 @@
         <v>38</v>
       </c>
       <c r="E269" s="68" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F269" s="68" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="I269" s="68" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M269" s="54" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O269" s="54" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="Q269" s="54" t="s">
         <v>48</v>
@@ -12574,10 +12579,10 @@
     <row r="271" spans="1:27">
       <c r="A271" s="66"/>
       <c r="B271" s="62" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C271" s="63" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D271" s="64" t="s">
         <v>16</v>
@@ -12611,7 +12616,7 @@
         <v>27</v>
       </c>
       <c r="E272" s="153" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F272" s="52"/>
       <c r="G272" s="52"/>
@@ -12619,7 +12624,7 @@
       <c r="J272" s="52"/>
       <c r="K272" s="52"/>
       <c r="M272" s="54" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="R272" s="52"/>
       <c r="S272" s="52"/>
@@ -12639,7 +12644,7 @@
         <v>38</v>
       </c>
       <c r="E273" s="153" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F273" s="52"/>
       <c r="G273" s="52"/>
@@ -12647,7 +12652,7 @@
       <c r="J273" s="52"/>
       <c r="K273" s="52"/>
       <c r="M273" s="54" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="R273" s="52"/>
       <c r="S273" s="52"/>
@@ -12665,10 +12670,10 @@
     <row r="275" spans="1:24">
       <c r="A275" s="66"/>
       <c r="B275" s="62" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C275" s="63" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D275" s="64" t="s">
         <v>16</v>
@@ -12698,11 +12703,11 @@
       <c r="E276" s="52"/>
       <c r="F276" s="52"/>
       <c r="I276" s="68" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M276" s="52"/>
       <c r="Q276" s="54" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="R276" s="52"/>
       <c r="U276" s="52"/>
@@ -12720,11 +12725,11 @@
       <c r="E277" s="145"/>
       <c r="F277" s="52"/>
       <c r="I277" s="68" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M277" s="52"/>
       <c r="Q277" s="54" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="R277" s="52"/>
       <c r="U277" s="52"/>
@@ -12735,13 +12740,13 @@
     <row r="278" s="51" customFormat="1" ht="5.1" customHeight="1"/>
     <row r="279" spans="1:24">
       <c r="A279" s="62" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B279" s="62" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C279" s="63" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D279" s="64" t="s">
         <v>16</v>
@@ -12783,25 +12788,25 @@
         <v>27</v>
       </c>
       <c r="E280" s="68" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I280" s="68" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="J280" s="68" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M280" s="54" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N280" s="54" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="O280" s="54" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P280" s="54" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="Q280" s="52"/>
       <c r="R280" s="52"/>
@@ -12818,16 +12823,16 @@
         <v>38</v>
       </c>
       <c r="E281" s="68" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="I281" s="68" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="J281" s="68" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N281" s="54" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P281" s="54" t="s">
         <v>48</v>
@@ -12846,10 +12851,10 @@
     <row r="283" spans="1:24">
       <c r="A283" s="66"/>
       <c r="B283" s="62" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C283" s="63" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D283" s="64" t="s">
         <v>16</v>
@@ -12864,7 +12869,7 @@
         <v>145</v>
       </c>
       <c r="V283" s="105" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="W283" s="75" t="s">
         <v>117</v>
@@ -12883,22 +12888,22 @@
       <c r="E284" s="52"/>
       <c r="F284" s="52"/>
       <c r="M284" s="152" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N284" s="148"/>
       <c r="O284" s="162"/>
       <c r="P284" s="162"/>
       <c r="U284" s="148" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="V284" s="148" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="W284" s="54" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="X284" s="54" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="285" ht="49.5" spans="1:24">
@@ -12911,7 +12916,7 @@
       <c r="E285" s="52"/>
       <c r="F285" s="52"/>
       <c r="M285" s="152" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="N285" s="148"/>
       <c r="O285" s="162"/>
@@ -12932,10 +12937,10 @@
     <row r="287" spans="1:24">
       <c r="A287" s="66"/>
       <c r="B287" s="62" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C287" s="63" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D287" s="64" t="s">
         <v>16</v>
@@ -12969,24 +12974,24 @@
         <v>27</v>
       </c>
       <c r="E288" s="153" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F288" s="52"/>
       <c r="M288" s="153" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="P288" s="52"/>
       <c r="Q288" s="54" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="V288" s="54" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="W288" s="54" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="X288" s="54" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="289" ht="93" customHeight="1" spans="1:24">
@@ -12997,15 +13002,15 @@
         <v>38</v>
       </c>
       <c r="E289" s="152" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F289" s="52"/>
       <c r="M289" s="153" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="P289" s="52"/>
       <c r="Q289" s="54" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="W289" s="54" t="s">
         <v>48</v>
@@ -13021,10 +13026,10 @@
     <row r="291" customHeight="1" spans="1:30">
       <c r="A291" s="66"/>
       <c r="B291" s="62" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C291" s="63" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D291" s="64" t="s">
         <v>16</v>
@@ -13074,22 +13079,22 @@
         <v>27</v>
       </c>
       <c r="E292" s="68" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F292" s="68" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G292" s="68" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="I292" s="68" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J292" s="68" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="K292" s="68" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="Q292" s="52"/>
       <c r="R292" s="52"/>
@@ -13103,22 +13108,22 @@
         <v>38</v>
       </c>
       <c r="E293" s="68" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F293" s="68" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G293" s="68" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="I293" s="68" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J293" s="68" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K293" s="68" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="Q293" s="52"/>
       <c r="R293" s="52"/>
@@ -13130,10 +13135,10 @@
     <row r="295" spans="1:14">
       <c r="A295" s="66"/>
       <c r="B295" s="137" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C295" s="138" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D295" s="82" t="s">
         <v>16</v>
@@ -13151,10 +13156,10 @@
         <v>354</v>
       </c>
       <c r="M295" s="154" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N295" s="163" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="296" ht="49.5" spans="1:14">
@@ -13168,19 +13173,19 @@
         <v>240</v>
       </c>
       <c r="J296" s="68" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="K296" s="68" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L296" s="100" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M296" s="54" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N296" s="54" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="297" ht="99" spans="1:12">
@@ -13191,34 +13196,34 @@
         <v>38</v>
       </c>
       <c r="I297" s="68" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="J297" s="68" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="K297" s="68" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L297" s="149" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="298" s="51" customFormat="1" ht="5.1" customHeight="1"/>
     <row r="299" s="53" customFormat="1" customHeight="1" spans="1:31">
       <c r="A299" s="155" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B299" s="137" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C299" s="138" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D299" s="156" t="s">
         <v>16</v>
       </c>
       <c r="E299" s="154" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F299" s="154" t="s">
         <v>124</v>
@@ -13227,28 +13232,28 @@
         <v>250</v>
       </c>
       <c r="M299" s="154" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="Q299" s="154" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="R299" s="154" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="U299" s="154" t="s">
         <v>89</v>
       </c>
       <c r="Y299" s="154" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AC299" s="154" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AD299" s="154" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AE299" s="154" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="300" ht="132" spans="1:31">
@@ -13259,37 +13264,37 @@
         <v>27</v>
       </c>
       <c r="E300" s="68" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F300" s="68" t="s">
+        <v>837</v>
+      </c>
+      <c r="I300" s="68" t="s">
         <v>836</v>
       </c>
-      <c r="I300" s="68" t="s">
-        <v>835</v>
-      </c>
       <c r="M300" s="68" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="Q300" s="54" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="R300" s="54" t="s">
+        <v>837</v>
+      </c>
+      <c r="U300" s="54" t="s">
         <v>836</v>
       </c>
-      <c r="U300" s="54" t="s">
-        <v>835</v>
-      </c>
       <c r="Y300" s="54" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AC300" s="54" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AD300" s="54" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AE300" s="54" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="301" ht="33" spans="1:13">
@@ -13320,10 +13325,10 @@
     <row r="303" s="53" customFormat="1" customHeight="1" spans="1:47">
       <c r="A303" s="157"/>
       <c r="B303" s="137" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C303" s="138" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D303" s="156" t="s">
         <v>16</v>
@@ -13347,16 +13352,16 @@
         <v>363</v>
       </c>
       <c r="K303" s="154" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M303" s="154" t="s">
         <v>22</v>
       </c>
       <c r="P303" s="154" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Q303" s="154" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="R303" s="79"/>
       <c r="S303" s="79"/>
@@ -13364,19 +13369,19 @@
       <c r="W303" s="79"/>
       <c r="X303" s="79"/>
       <c r="Y303" s="154" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="Z303" s="79"/>
       <c r="AA303" s="79"/>
       <c r="AB303" s="79"/>
       <c r="AC303" s="154" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AD303" s="154" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AE303" s="154" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AF303" s="79"/>
       <c r="AG303" s="168"/>
@@ -13403,51 +13408,51 @@
         <v>27</v>
       </c>
       <c r="E304" s="68" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F304" s="68" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G304" s="68" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H304" s="68" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="I304" s="68" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J304" s="100" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="K304" s="100" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M304" s="54" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P304" s="54" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="Q304" s="54" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="S304" s="52"/>
       <c r="V304" s="52"/>
       <c r="W304" s="52"/>
       <c r="Y304" s="54" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="Z304" s="52"/>
       <c r="AB304" s="52"/>
       <c r="AC304" s="54" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AD304" s="54" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AE304" s="54" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AF304" s="52"/>
       <c r="AG304" s="52"/>
@@ -13477,22 +13482,22 @@
         <v>206</v>
       </c>
       <c r="F305" s="68" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G305" s="68" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H305" s="68" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="I305" s="68" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J305" s="149" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="K305" s="149" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="306" s="51" customFormat="1" ht="5.1" customHeight="1" spans="1:1">
@@ -13501,10 +13506,10 @@
     <row r="307" s="53" customFormat="1" customHeight="1" spans="1:47">
       <c r="A307" s="157"/>
       <c r="B307" s="62" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C307" s="63" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D307" s="159" t="s">
         <v>16</v>
@@ -13524,20 +13529,20 @@
       </c>
       <c r="K307" s="79"/>
       <c r="M307" s="154" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N307" s="154" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="O307" s="154" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="P307" s="79"/>
       <c r="Q307" s="154" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="R307" s="154" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="S307" s="154" t="s">
         <v>197</v>
@@ -13546,13 +13551,13 @@
       <c r="V307" s="79"/>
       <c r="W307" s="79"/>
       <c r="Y307" s="154" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="Z307" s="79"/>
       <c r="AA307" s="79"/>
       <c r="AB307" s="79"/>
       <c r="AC307" s="154" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AE307" s="79"/>
       <c r="AF307" s="79"/>
@@ -13580,45 +13585,45 @@
         <v>27</v>
       </c>
       <c r="E308" s="68" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F308" s="68" t="s">
+        <v>871</v>
+      </c>
+      <c r="I308" s="68" t="s">
         <v>870</v>
       </c>
-      <c r="I308" s="68" t="s">
-        <v>869</v>
-      </c>
       <c r="J308" s="68" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K308" s="164"/>
       <c r="L308" s="164"/>
       <c r="M308" s="164" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N308" s="164" t="s">
+        <v>871</v>
+      </c>
+      <c r="O308" s="164" t="s">
+        <v>872</v>
+      </c>
+      <c r="Q308" s="164" t="s">
         <v>870</v>
       </c>
-      <c r="O308" s="164" t="s">
+      <c r="R308" s="164" t="s">
         <v>871</v>
       </c>
-      <c r="Q308" s="164" t="s">
-        <v>869</v>
-      </c>
-      <c r="R308" s="164" t="s">
-        <v>870</v>
-      </c>
       <c r="S308" s="164" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="V308" s="52"/>
       <c r="W308" s="52"/>
       <c r="Y308" s="164" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AB308" s="52"/>
       <c r="AC308" s="164" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AF308" s="52"/>
       <c r="AG308" s="52"/>
@@ -13651,10 +13656,10 @@
         <v>206</v>
       </c>
       <c r="I309" s="68" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="J309" s="68" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="310" s="51" customFormat="1" ht="5.1" customHeight="1" spans="1:3">
@@ -13665,10 +13670,10 @@
     <row r="311" s="53" customFormat="1" spans="1:47">
       <c r="A311" s="157"/>
       <c r="B311" s="62" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C311" s="63" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D311" s="159" t="s">
         <v>16</v>
@@ -13677,18 +13682,18 @@
         <v>50</v>
       </c>
       <c r="F311" s="154" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H311" s="79"/>
       <c r="I311" s="154" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="J311" s="154" t="s">
         <v>52</v>
       </c>
       <c r="K311" s="79"/>
       <c r="M311" s="154" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="N311" s="154" t="s">
         <v>336</v>
@@ -13698,7 +13703,7 @@
       </c>
       <c r="P311" s="79"/>
       <c r="Q311" s="154" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="R311" s="79"/>
       <c r="S311" s="79"/>
@@ -13739,30 +13744,30 @@
         <v>27</v>
       </c>
       <c r="E312" s="68" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F312" s="68" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="I312" s="68" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="J312" s="153" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K312" s="164"/>
       <c r="L312" s="164"/>
       <c r="M312" s="68" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="N312" s="68" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="O312" s="164" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="Q312" s="164" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="S312" s="52"/>
       <c r="T312" s="164"/>
@@ -13809,12 +13814,12 @@
         <v>206</v>
       </c>
       <c r="J313" s="153" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="K313" s="76"/>
       <c r="L313" s="76"/>
       <c r="M313" s="161" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="N313" s="161" t="s">
         <v>206</v>
@@ -13830,10 +13835,10 @@
     <row r="315" s="53" customFormat="1" customHeight="1" spans="1:47">
       <c r="A315" s="157"/>
       <c r="B315" s="130" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C315" s="131" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D315" s="159" t="s">
         <v>16</v>
@@ -13845,10 +13850,10 @@
         <v>435</v>
       </c>
       <c r="K315" s="154" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="L315" s="154" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="O315" s="79"/>
       <c r="P315" s="79"/>
@@ -13892,16 +13897,16 @@
         <v>27</v>
       </c>
       <c r="I316" s="165" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J316" s="165" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K316" s="165" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L316" s="165" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="O316" s="164"/>
       <c r="S316" s="52"/>
@@ -13960,10 +13965,10 @@
     <row r="319" s="53" customFormat="1" customHeight="1" spans="1:47">
       <c r="A319" s="157"/>
       <c r="B319" s="62" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C319" s="63" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D319" s="159" t="s">
         <v>16</v>
@@ -13972,39 +13977,39 @@
         <v>214</v>
       </c>
       <c r="M319" s="167" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N319" s="167" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="O319" s="154" t="s">
         <v>24</v>
       </c>
       <c r="Q319" s="154" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="R319" s="79"/>
       <c r="S319" s="79"/>
       <c r="U319" s="154" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="V319" s="79"/>
       <c r="W319" s="79"/>
       <c r="X319" s="79"/>
       <c r="Y319" s="154" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="Z319" s="79"/>
       <c r="AA319" s="79"/>
       <c r="AB319" s="79"/>
       <c r="AC319" s="154" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AD319" s="154" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AE319" s="154" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AF319" s="168"/>
       <c r="AG319" s="168"/>
@@ -14031,40 +14036,40 @@
         <v>27</v>
       </c>
       <c r="I320" s="68" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="M320" s="68" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="N320" s="54" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="O320" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="Q320" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="R320" s="164"/>
       <c r="U320" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="W320" s="52"/>
       <c r="X320" s="164"/>
       <c r="Y320" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="Z320" s="52"/>
       <c r="AA320" s="52"/>
       <c r="AB320" s="164"/>
       <c r="AC320" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AD320" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AE320" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AF320" s="52"/>
       <c r="AG320" s="52"/>
@@ -14091,16 +14096,16 @@
         <v>38</v>
       </c>
       <c r="E321" s="54" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="I321" s="68" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="M321" s="68" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="N321" s="54" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="322" s="51" customFormat="1" ht="4.5" customHeight="1" spans="1:1">
@@ -14109,51 +14114,51 @@
     <row r="323" s="53" customFormat="1" spans="1:41">
       <c r="A323" s="157"/>
       <c r="B323" s="62" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C323" s="63" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D323" s="159" t="s">
         <v>16</v>
       </c>
       <c r="M323" s="154" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N323" s="154" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="O323" s="177" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P323" s="154" t="s">
         <v>24</v>
       </c>
       <c r="Q323" s="154" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="R323" s="79"/>
       <c r="S323" s="79"/>
       <c r="U323" s="154" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="V323" s="79"/>
       <c r="W323" s="79"/>
       <c r="X323" s="79"/>
       <c r="Y323" s="154" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="Z323" s="79"/>
       <c r="AA323" s="79"/>
       <c r="AB323" s="79"/>
       <c r="AC323" s="154" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AD323" s="154" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AE323" s="154" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AF323" s="168"/>
       <c r="AG323" s="168"/>
@@ -14174,40 +14179,40 @@
         <v>27</v>
       </c>
       <c r="M324" s="68" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N324" s="68" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="O324" s="54" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="P324" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="Q324" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="R324" s="164"/>
       <c r="U324" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="W324" s="52"/>
       <c r="X324" s="164"/>
       <c r="Y324" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="Z324" s="52"/>
       <c r="AA324" s="52"/>
       <c r="AB324" s="164"/>
       <c r="AC324" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AD324" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AE324" s="164" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AF324" s="52"/>
       <c r="AG324" s="52"/>
@@ -14228,28 +14233,28 @@
         <v>38</v>
       </c>
       <c r="E325" s="54" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M325" s="68" t="s">
+        <v>919</v>
+      </c>
+      <c r="N325" s="68" t="s">
+        <v>920</v>
+      </c>
+      <c r="O325" s="54" t="s">
         <v>918</v>
-      </c>
-      <c r="N325" s="68" t="s">
-        <v>919</v>
-      </c>
-      <c r="O325" s="54" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="326" s="51" customFormat="1" ht="5.1" customHeight="1"/>
     <row r="327" spans="1:26">
       <c r="A327" s="170" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B327" s="171" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C327" s="172" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D327" s="173" t="s">
         <v>16</v>
@@ -14276,7 +14281,7 @@
         <v>85</v>
       </c>
       <c r="N327" s="101" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O327" s="101" t="s">
         <v>70</v>
@@ -14303,34 +14308,34 @@
         <v>27</v>
       </c>
       <c r="E328" s="150" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F328" s="150" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="I328" s="54" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="J328" s="54" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="K328" s="54" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="L328" s="54" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M328" s="54" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N328" s="54" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="O328" s="54" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="P328" s="54" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="329" ht="45" customHeight="1" spans="1:4">
@@ -14347,10 +14352,10 @@
     <row r="331" spans="1:30">
       <c r="A331" s="170"/>
       <c r="B331" s="171" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C331" s="172" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D331" s="173" t="s">
         <v>16</v>
@@ -14362,10 +14367,10 @@
         <v>194</v>
       </c>
       <c r="I331" s="65" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M331" s="101" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="Q331" s="65" t="s">
         <v>87</v>
@@ -14374,10 +14379,10 @@
         <v>25</v>
       </c>
       <c r="U331" s="65" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="V331" s="65" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="W331" s="73"/>
       <c r="X331" s="73"/>
@@ -14386,13 +14391,13 @@
         <v>165</v>
       </c>
       <c r="AA331" s="65" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AC331" s="101" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AD331" s="101" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="332" ht="135.95" customHeight="1" spans="1:30">
@@ -14403,40 +14408,40 @@
         <v>27</v>
       </c>
       <c r="E332" s="150" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F332" s="54" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="I332" s="54" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M332" s="54" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="Q332" s="54" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="R332" s="54" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="U332" s="54" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="V332" s="54" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="Z332" s="54" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AA332" s="54" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AC332" s="54" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AD332" s="178" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="333" ht="48" customHeight="1" spans="1:30">
@@ -14447,13 +14452,13 @@
         <v>38</v>
       </c>
       <c r="M333" s="54" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="Z333" s="54" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AD333" s="54" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="334" s="51" customFormat="1" ht="5.1" hidden="1" customHeight="1" spans="1:1">
@@ -14462,25 +14467,25 @@
     <row r="335" hidden="1" spans="1:26">
       <c r="A335" s="170"/>
       <c r="B335" s="171" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C335" s="172" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D335" s="173" t="s">
         <v>16</v>
       </c>
       <c r="I335" s="65" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="J335" s="65" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="K335" s="65" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="L335" s="65" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M335" s="65" t="s">
         <v>85</v>
@@ -14489,7 +14494,7 @@
         <v>116</v>
       </c>
       <c r="O335" s="65" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P335" s="101" t="s">
         <v>255</v>
@@ -14513,28 +14518,28 @@
         <v>27</v>
       </c>
       <c r="I336" s="54" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="J336" s="54" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="K336" s="54" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="L336" s="54" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="M336" s="54" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="N336" s="54" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="O336" s="54" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="P336" s="54" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="337" ht="48" hidden="1" customHeight="1" spans="1:16">
@@ -14545,7 +14550,7 @@
         <v>38</v>
       </c>
       <c r="L337" s="53" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="P337" s="53" t="s">
         <v>48</v>
@@ -14554,13 +14559,13 @@
     <row r="338" s="51" customFormat="1" ht="3.95" customHeight="1"/>
     <row r="339" spans="1:26">
       <c r="A339" s="170" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B339" s="171" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C339" s="172" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D339" s="173" t="s">
         <v>16</v>
@@ -14572,17 +14577,17 @@
         <v>196</v>
       </c>
       <c r="Q339" s="154" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="R339" s="154" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S339" s="101" t="s">
         <v>88</v>
       </c>
       <c r="T339" s="73"/>
       <c r="U339" s="101" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="V339" s="73"/>
       <c r="W339" s="73"/>
@@ -14598,22 +14603,22 @@
         <v>27</v>
       </c>
       <c r="I340" s="54" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="J340" s="54" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="Q340" s="54" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="R340" s="54" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="S340" s="54" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="U340" s="54" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="341" ht="33" spans="1:12">
@@ -14624,7 +14629,7 @@
         <v>38</v>
       </c>
       <c r="J341" s="53" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="L341" s="53"/>
     </row>
@@ -14633,13 +14638,13 @@
     </row>
     <row r="343" s="54" customFormat="1" spans="1:26">
       <c r="A343" s="170" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B343" s="171" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C343" s="172" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D343" s="173" t="s">
         <v>16</v>
@@ -14651,15 +14656,15 @@
         <v>87</v>
       </c>
       <c r="R343" s="65" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S343" s="73"/>
       <c r="T343" s="73"/>
       <c r="U343" s="65" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="V343" s="101" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="W343" s="101" t="s">
         <v>90</v>
@@ -14676,22 +14681,22 @@
         <v>27</v>
       </c>
       <c r="M344" s="54" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Q344" s="54" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="R344" s="54" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="U344" s="54" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="V344" s="54" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="W344" s="54" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="345" s="54" customFormat="1" ht="33" spans="1:12">
@@ -14942,7 +14947,7 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1" spans="1:4">
       <c r="A1" s="11" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="11"/>
@@ -14950,17 +14955,17 @@
     </row>
     <row r="2" ht="15.95" customHeight="1" spans="4:4">
       <c r="D2" s="13" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" ht="17.5" spans="4:4">
       <c r="D3" s="13" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
@@ -14968,7 +14973,7 @@
     </row>
     <row r="5" ht="14.1" customHeight="1" spans="1:4">
       <c r="A5" s="16" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -14988,7 +14993,7 @@
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:4">
       <c r="A8" s="14" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
@@ -14996,10 +15001,10 @@
     </row>
     <row r="9" ht="81" customHeight="1" spans="1:4">
       <c r="A9" s="18" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -15007,34 +15012,34 @@
     <row r="10" ht="27" customHeight="1" spans="1:4">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
     </row>
     <row r="11" ht="32.1" customHeight="1" spans="1:4">
       <c r="A11" s="25" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
     </row>
     <row r="12" ht="60" customHeight="1" spans="1:4">
       <c r="A12" s="28" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="31"/>
     </row>
     <row r="13" s="8" customFormat="1" ht="21.95" customHeight="1" spans="1:4">
       <c r="A13" s="28" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
@@ -15042,7 +15047,7 @@
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:4">
       <c r="A14" s="28" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="34"/>
@@ -15050,7 +15055,7 @@
     </row>
     <row r="15" ht="36.95" customHeight="1" spans="1:4">
       <c r="A15" s="28" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="34"/>
@@ -15061,14 +15066,14 @@
         <v>440</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
     </row>
     <row r="17" ht="22.15" customHeight="1" spans="1:4">
       <c r="A17" s="35" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="37"/>
@@ -15076,27 +15081,27 @@
     </row>
     <row r="18" ht="87" customHeight="1" spans="1:4">
       <c r="A18" s="28" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
     </row>
     <row r="19" ht="27.95" customHeight="1" spans="1:4">
       <c r="A19" s="28" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:4">
       <c r="A20" s="28" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
@@ -15104,17 +15109,17 @@
     </row>
     <row r="21" ht="68.1" customHeight="1" spans="1:4">
       <c r="A21" s="28" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
     </row>
     <row r="22" ht="18.95" customHeight="1" spans="1:4">
       <c r="A22" s="28" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
@@ -15122,7 +15127,7 @@
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:4">
       <c r="A23" s="28" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="34"/>
@@ -15138,7 +15143,7 @@
     </row>
     <row r="25" ht="19.9" customHeight="1" spans="1:4">
       <c r="A25" s="35" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
@@ -15307,13 +15312,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:3">
@@ -15324,73 +15329,73 @@
         <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
@@ -15401,7 +15406,7 @@
         <v>161</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:3">
@@ -15412,7 +15417,7 @@
         <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="11" ht="28" spans="1:3">
@@ -15423,7 +15428,7 @@
         <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:3">
@@ -15434,7 +15439,7 @@
         <v>183</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:3">
@@ -15445,7 +15450,7 @@
         <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:3">
@@ -15453,10 +15458,10 @@
         <v>253</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:3">
@@ -15467,29 +15472,29 @@
         <v>193</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="16" ht="28" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="18" ht="28" spans="1:3">
@@ -15497,10 +15502,10 @@
         <v>458</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:3">
@@ -15508,10 +15513,10 @@
         <v>458</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:3">
@@ -15522,7 +15527,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
@@ -15533,7 +15538,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="22" ht="28" spans="1:4">
@@ -15541,10 +15546,10 @@
         <v>20180609</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D22" s="6"/>
     </row>
